--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.05307100000000001</v>
+        <v>0.021072</v>
       </c>
       <c r="H2">
-        <v>0.106142</v>
+        <v>0.042144</v>
       </c>
       <c r="I2">
-        <v>0.05191038755504432</v>
+        <v>0.006826597554061716</v>
       </c>
       <c r="J2">
-        <v>0.04141173349355661</v>
+        <v>0.004661306488643927</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.600879</v>
+        <v>0.227207</v>
       </c>
       <c r="N2">
-        <v>4.802637</v>
+        <v>0.454414</v>
       </c>
       <c r="O2">
-        <v>0.424218366280756</v>
+        <v>0.06942440932250649</v>
       </c>
       <c r="P2">
-        <v>0.4519487492975115</v>
+        <v>0.04959519063710067</v>
       </c>
       <c r="Q2">
-        <v>0.084960249409</v>
+        <v>0.004787705904</v>
       </c>
       <c r="R2">
-        <v>0.509761496454</v>
+        <v>0.019150823616</v>
       </c>
       <c r="S2">
-        <v>0.02202133980160179</v>
+        <v>0.0004739325028732022</v>
       </c>
       <c r="T2">
-        <v>0.01871598115865478</v>
+        <v>0.0002311783839222499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.05307100000000001</v>
+        <v>0.021072</v>
       </c>
       <c r="H3">
-        <v>0.106142</v>
+        <v>0.042144</v>
       </c>
       <c r="I3">
-        <v>0.05191038755504432</v>
+        <v>0.006826597554061716</v>
       </c>
       <c r="J3">
-        <v>0.04141173349355661</v>
+        <v>0.004661306488643927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2829473333333334</v>
+        <v>1.600879</v>
       </c>
       <c r="N3">
-        <v>0.8488420000000001</v>
+        <v>4.802637</v>
       </c>
       <c r="O3">
-        <v>0.07497846838528283</v>
+        <v>0.4891578119151472</v>
       </c>
       <c r="P3">
-        <v>0.07987967448949365</v>
+        <v>0.5241645230468103</v>
       </c>
       <c r="Q3">
-        <v>0.01501629792733334</v>
+        <v>0.033733722288</v>
       </c>
       <c r="R3">
-        <v>0.09009778756400003</v>
+        <v>0.202402333728</v>
       </c>
       <c r="S3">
-        <v>0.00389216135216367</v>
+        <v>0.003339283522370125</v>
       </c>
       <c r="T3">
-        <v>0.003307955791510964</v>
+        <v>0.002443291492395046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.05307100000000001</v>
+        <v>0.021072</v>
       </c>
       <c r="H4">
-        <v>0.106142</v>
+        <v>0.042144</v>
       </c>
       <c r="I4">
-        <v>0.05191038755504432</v>
+        <v>0.006826597554061716</v>
       </c>
       <c r="J4">
-        <v>0.04141173349355661</v>
+        <v>0.004661306488643927</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6946355</v>
+        <v>0.6215413333333333</v>
       </c>
       <c r="N4">
-        <v>1.389271</v>
+        <v>1.864624</v>
       </c>
       <c r="O4">
-        <v>0.1840720860043864</v>
+        <v>0.1899155392931986</v>
       </c>
       <c r="P4">
-        <v>0.1307363623120596</v>
+        <v>0.2035068962367207</v>
       </c>
       <c r="Q4">
-        <v>0.0368650006205</v>
+        <v>0.013097118976</v>
       </c>
       <c r="R4">
-        <v>0.147460002482</v>
+        <v>0.07858271385599999</v>
       </c>
       <c r="S4">
-        <v>0.009555253322553147</v>
+        <v>0.001296476956017261</v>
       </c>
       <c r="T4">
-        <v>0.005414019393984072</v>
+        <v>0.0009486080159120126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,51 +729,51 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.05307100000000001</v>
+        <v>0.021072</v>
       </c>
       <c r="H5">
-        <v>0.106142</v>
+        <v>0.042144</v>
       </c>
       <c r="I5">
-        <v>0.05191038755504432</v>
+        <v>0.006826597554061716</v>
       </c>
       <c r="J5">
-        <v>0.04141173349355661</v>
+        <v>0.004661306488643927</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.195252666666667</v>
+        <v>0.428507</v>
       </c>
       <c r="N5">
-        <v>3.585758</v>
+        <v>0.8570139999999999</v>
       </c>
       <c r="O5">
-        <v>0.3167310793295748</v>
+        <v>0.1309327853699898</v>
       </c>
       <c r="P5">
-        <v>0.3374352139009353</v>
+        <v>0.09353535038239182</v>
       </c>
       <c r="Q5">
-        <v>0.06343325427266666</v>
+        <v>0.009029499504</v>
       </c>
       <c r="R5">
-        <v>0.380599525636</v>
+        <v>0.036117998016</v>
       </c>
       <c r="S5">
-        <v>0.01644163307872571</v>
+        <v>0.0008938254323532603</v>
       </c>
       <c r="T5">
-        <v>0.0139737771494068</v>
+        <v>0.0004359969356550262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.264044</v>
+        <v>0.021072</v>
       </c>
       <c r="H6">
-        <v>0.7921319999999999</v>
+        <v>0.042144</v>
       </c>
       <c r="I6">
-        <v>0.2582696081020542</v>
+        <v>0.006826597554061716</v>
       </c>
       <c r="J6">
-        <v>0.3090535252371162</v>
+        <v>0.004661306488643927</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.600879</v>
+        <v>0.3945906666666667</v>
       </c>
       <c r="N6">
-        <v>4.802637</v>
+        <v>1.183772</v>
       </c>
       <c r="O6">
-        <v>0.424218366280756</v>
+        <v>0.120569454099158</v>
       </c>
       <c r="P6">
-        <v>0.4519487492975115</v>
+        <v>0.1291980396969766</v>
       </c>
       <c r="Q6">
-        <v>0.422702494676</v>
+        <v>0.008314814528000002</v>
       </c>
       <c r="R6">
-        <v>3.804322452084</v>
+        <v>0.049888887168</v>
       </c>
       <c r="S6">
-        <v>0.1095627112090246</v>
+        <v>0.0008230791404478681</v>
       </c>
       <c r="T6">
-        <v>0.1396763541969016</v>
+        <v>0.0006022316607595928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,43 +856,43 @@
         <v>0.264044</v>
       </c>
       <c r="H7">
-        <v>0.7921319999999999</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I7">
-        <v>0.2582696081020542</v>
+        <v>0.08554110310196809</v>
       </c>
       <c r="J7">
-        <v>0.3090535252371162</v>
+        <v>0.08761318411784576</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2829473333333334</v>
+        <v>0.227207</v>
       </c>
       <c r="N7">
-        <v>0.8488420000000001</v>
+        <v>0.454414</v>
       </c>
       <c r="O7">
-        <v>0.07497846838528283</v>
+        <v>0.06942440932250649</v>
       </c>
       <c r="P7">
-        <v>0.07987967448949365</v>
+        <v>0.04959519063710067</v>
       </c>
       <c r="Q7">
-        <v>0.07471054568266668</v>
+        <v>0.059992645108</v>
       </c>
       <c r="R7">
-        <v>0.6723949111440001</v>
+        <v>0.359955870648</v>
       </c>
       <c r="S7">
-        <v>0.01936465964595926</v>
+        <v>0.005938640555649763</v>
       </c>
       <c r="T7">
-        <v>0.02468709499577135</v>
+        <v>0.004345192568647961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,43 +918,43 @@
         <v>0.264044</v>
       </c>
       <c r="H8">
-        <v>0.7921319999999999</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I8">
-        <v>0.2582696081020542</v>
+        <v>0.08554110310196809</v>
       </c>
       <c r="J8">
-        <v>0.3090535252371162</v>
+        <v>0.08761318411784576</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6946355</v>
+        <v>1.600879</v>
       </c>
       <c r="N8">
-        <v>1.389271</v>
+        <v>4.802637</v>
       </c>
       <c r="O8">
-        <v>0.1840720860043864</v>
+        <v>0.4891578119151472</v>
       </c>
       <c r="P8">
-        <v>0.1307363623120596</v>
+        <v>0.5241645230468103</v>
       </c>
       <c r="Q8">
-        <v>0.183414335962</v>
+        <v>0.422702494676</v>
       </c>
       <c r="R8">
-        <v>1.100486015772</v>
+        <v>3.804322452084</v>
       </c>
       <c r="S8">
-        <v>0.0475402255148805</v>
+        <v>0.04184309882216673</v>
       </c>
       <c r="T8">
-        <v>0.04040453364921888</v>
+        <v>0.04592372286574299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,48 +980,48 @@
         <v>0.264044</v>
       </c>
       <c r="H9">
-        <v>0.7921319999999999</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I9">
-        <v>0.2582696081020542</v>
+        <v>0.08554110310196809</v>
       </c>
       <c r="J9">
-        <v>0.3090535252371162</v>
+        <v>0.08761318411784576</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.195252666666667</v>
+        <v>0.6215413333333333</v>
       </c>
       <c r="N9">
-        <v>3.585758</v>
+        <v>1.864624</v>
       </c>
       <c r="O9">
-        <v>0.3167310793295748</v>
+        <v>0.1899155392931986</v>
       </c>
       <c r="P9">
-        <v>0.3374352139009353</v>
+        <v>0.2035068962367207</v>
       </c>
       <c r="Q9">
-        <v>0.3155992951173333</v>
+        <v>0.1641142598186666</v>
       </c>
       <c r="R9">
-        <v>2.840393656055999</v>
+        <v>1.477028338368</v>
       </c>
       <c r="S9">
-        <v>0.08180201173218993</v>
+        <v>0.01624558472734538</v>
       </c>
       <c r="T9">
-        <v>0.1042855423952244</v>
+        <v>0.01782988716923914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.264044</v>
+      </c>
+      <c r="H10">
+        <v>0.7921320000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.08554110310196809</v>
+      </c>
+      <c r="J10">
+        <v>0.08761318411784576</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.109986</v>
-      </c>
-      <c r="H10">
-        <v>0.329958</v>
-      </c>
-      <c r="I10">
-        <v>0.1075807104751956</v>
-      </c>
-      <c r="J10">
-        <v>0.128734457237163</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.600879</v>
+        <v>0.428507</v>
       </c>
       <c r="N10">
-        <v>4.802637</v>
+        <v>0.8570139999999999</v>
       </c>
       <c r="O10">
-        <v>0.424218366280756</v>
+        <v>0.1309327853699898</v>
       </c>
       <c r="P10">
-        <v>0.4519487492975115</v>
+        <v>0.09353535038239182</v>
       </c>
       <c r="Q10">
-        <v>0.176074277694</v>
+        <v>0.113144702308</v>
       </c>
       <c r="R10">
-        <v>1.584668499246</v>
+        <v>0.678868213848</v>
       </c>
       <c r="S10">
-        <v>0.04563771324111048</v>
+        <v>0.01120013489276216</v>
       </c>
       <c r="T10">
-        <v>0.05818137693982978</v>
+        <v>0.008194929874579709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.109986</v>
+        <v>0.264044</v>
       </c>
       <c r="H11">
-        <v>0.329958</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I11">
-        <v>0.1075807104751956</v>
+        <v>0.08554110310196809</v>
       </c>
       <c r="J11">
-        <v>0.128734457237163</v>
+        <v>0.08761318411784576</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2829473333333334</v>
+        <v>0.3945906666666667</v>
       </c>
       <c r="N11">
-        <v>0.8488420000000001</v>
+        <v>1.183772</v>
       </c>
       <c r="O11">
-        <v>0.07497846838528283</v>
+        <v>0.120569454099158</v>
       </c>
       <c r="P11">
-        <v>0.07987967448949365</v>
+        <v>0.1291980396969766</v>
       </c>
       <c r="Q11">
-        <v>0.031120245404</v>
+        <v>0.1041892979893333</v>
       </c>
       <c r="R11">
-        <v>0.280082208636</v>
+        <v>0.9377036819040001</v>
       </c>
       <c r="S11">
-        <v>0.008066236899230715</v>
+        <v>0.01031364410404408</v>
       </c>
       <c r="T11">
-        <v>0.01028326653968622</v>
+        <v>0.01131945163963596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.109986</v>
+        <v>0.08179599999999999</v>
       </c>
       <c r="H12">
-        <v>0.329958</v>
+        <v>0.245388</v>
       </c>
       <c r="I12">
-        <v>0.1075807104751956</v>
+        <v>0.02649906859965984</v>
       </c>
       <c r="J12">
-        <v>0.128734457237163</v>
+        <v>0.02714096138561494</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.6946355</v>
+        <v>0.227207</v>
       </c>
       <c r="N12">
-        <v>1.389271</v>
+        <v>0.454414</v>
       </c>
       <c r="O12">
-        <v>0.1840720860043864</v>
+        <v>0.06942440932250649</v>
       </c>
       <c r="P12">
-        <v>0.1307363623120596</v>
+        <v>0.04959519063710067</v>
       </c>
       <c r="Q12">
-        <v>0.07640018010299998</v>
+        <v>0.018584623772</v>
       </c>
       <c r="R12">
-        <v>0.4584010806179999</v>
+        <v>0.111507742632</v>
       </c>
       <c r="S12">
-        <v>0.01980260579100319</v>
+        <v>0.001839682185127963</v>
       </c>
       <c r="T12">
-        <v>0.01683027464340408</v>
+        <v>0.001346061153993761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,51 +1225,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.109986</v>
+        <v>0.08179599999999999</v>
       </c>
       <c r="H13">
-        <v>0.329958</v>
+        <v>0.245388</v>
       </c>
       <c r="I13">
-        <v>0.1075807104751956</v>
+        <v>0.02649906859965984</v>
       </c>
       <c r="J13">
-        <v>0.128734457237163</v>
+        <v>0.02714096138561494</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.195252666666667</v>
+        <v>1.600879</v>
       </c>
       <c r="N13">
-        <v>3.585758</v>
+        <v>4.802637</v>
       </c>
       <c r="O13">
-        <v>0.3167310793295748</v>
+        <v>0.4891578119151472</v>
       </c>
       <c r="P13">
-        <v>0.3374352139009353</v>
+        <v>0.5241645230468103</v>
       </c>
       <c r="Q13">
-        <v>0.131461059796</v>
+        <v>0.130945498684</v>
       </c>
       <c r="R13">
-        <v>1.183149538164</v>
+        <v>1.178509488156</v>
       </c>
       <c r="S13">
-        <v>0.03407415454385118</v>
+        <v>0.01296222641399899</v>
       </c>
       <c r="T13">
-        <v>0.04343953911424289</v>
+        <v>0.01422632907972275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,25 +1278,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.450913</v>
+        <v>0.08179599999999999</v>
       </c>
       <c r="H14">
-        <v>0.901826</v>
+        <v>0.245388</v>
       </c>
       <c r="I14">
-        <v>0.4410519602722334</v>
+        <v>0.02649906859965984</v>
       </c>
       <c r="J14">
-        <v>0.351851085993859</v>
+        <v>0.02714096138561494</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,95 +1305,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.600879</v>
+        <v>0.6215413333333333</v>
       </c>
       <c r="N14">
-        <v>4.802637</v>
+        <v>1.864624</v>
       </c>
       <c r="O14">
-        <v>0.424218366280756</v>
+        <v>0.1899155392931986</v>
       </c>
       <c r="P14">
-        <v>0.4519487492975115</v>
+        <v>0.2035068962367207</v>
       </c>
       <c r="Q14">
-        <v>0.721857152527</v>
+        <v>0.05083959490133332</v>
       </c>
       <c r="R14">
-        <v>4.331142915162</v>
+        <v>0.457556354112</v>
       </c>
       <c r="S14">
-        <v>0.1871023420316117</v>
+        <v>0.005032584903871862</v>
       </c>
       <c r="T14">
-        <v>0.1590186582538957</v>
+        <v>0.005523372812467182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.450913</v>
+        <v>0.08179599999999999</v>
       </c>
       <c r="H15">
-        <v>0.901826</v>
+        <v>0.245388</v>
       </c>
       <c r="I15">
-        <v>0.4410519602722334</v>
+        <v>0.02649906859965984</v>
       </c>
       <c r="J15">
-        <v>0.351851085993859</v>
+        <v>0.02714096138561494</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2829473333333334</v>
+        <v>0.428507</v>
       </c>
       <c r="N15">
-        <v>0.8488420000000001</v>
+        <v>0.8570139999999999</v>
       </c>
       <c r="O15">
-        <v>0.07497846838528283</v>
+        <v>0.1309327853699898</v>
       </c>
       <c r="P15">
-        <v>0.07987967448949365</v>
+        <v>0.09353535038239182</v>
       </c>
       <c r="Q15">
-        <v>0.1275846309153334</v>
+        <v>0.03505015857199999</v>
       </c>
       <c r="R15">
-        <v>0.765507785492</v>
+        <v>0.210300951432</v>
       </c>
       <c r="S15">
-        <v>0.03306940045953867</v>
+        <v>0.003469596861463899</v>
       </c>
       <c r="T15">
-        <v>0.02810575021796429</v>
+        <v>0.00253863933291846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.450913</v>
+        <v>0.08179599999999999</v>
       </c>
       <c r="H16">
-        <v>0.901826</v>
+        <v>0.245388</v>
       </c>
       <c r="I16">
-        <v>0.4410519602722334</v>
+        <v>0.02649906859965984</v>
       </c>
       <c r="J16">
-        <v>0.351851085993859</v>
+        <v>0.02714096138561494</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6946355</v>
+        <v>0.3945906666666667</v>
       </c>
       <c r="N16">
-        <v>1.389271</v>
+        <v>1.183772</v>
       </c>
       <c r="O16">
-        <v>0.1840720860043864</v>
+        <v>0.120569454099158</v>
       </c>
       <c r="P16">
-        <v>0.1307363623120596</v>
+        <v>0.1291980396969766</v>
       </c>
       <c r="Q16">
-        <v>0.3132201772115</v>
+        <v>0.03227593817066667</v>
       </c>
       <c r="R16">
-        <v>1.252880708846</v>
+        <v>0.290483443536</v>
       </c>
       <c r="S16">
-        <v>0.08118535436363375</v>
+        <v>0.003194978235197125</v>
       </c>
       <c r="T16">
-        <v>0.0459997310583848</v>
+        <v>0.003506559006512788</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.450913</v>
+        <v>0.197936</v>
       </c>
       <c r="H17">
-        <v>0.901826</v>
+        <v>0.395872</v>
       </c>
       <c r="I17">
-        <v>0.4410519602722334</v>
+        <v>0.06412440268891229</v>
       </c>
       <c r="J17">
-        <v>0.351851085993859</v>
+        <v>0.04378513482992712</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.195252666666667</v>
+        <v>0.227207</v>
       </c>
       <c r="N17">
-        <v>3.585758</v>
+        <v>0.454414</v>
       </c>
       <c r="O17">
-        <v>0.3167310793295748</v>
+        <v>0.06942440932250649</v>
       </c>
       <c r="P17">
-        <v>0.3374352139009353</v>
+        <v>0.04959519063710067</v>
       </c>
       <c r="Q17">
-        <v>0.5389549656846666</v>
+        <v>0.044972444752</v>
       </c>
       <c r="R17">
-        <v>3.233729794108</v>
+        <v>0.179889779008</v>
       </c>
       <c r="S17">
-        <v>0.1396948634174492</v>
+        <v>0.004451798779836282</v>
       </c>
       <c r="T17">
-        <v>0.1187269464636142</v>
+        <v>0.002171532108961392</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.01924366666666667</v>
+        <v>0.197936</v>
       </c>
       <c r="H18">
-        <v>0.057731</v>
+        <v>0.395872</v>
       </c>
       <c r="I18">
-        <v>0.01882282592464348</v>
+        <v>0.06412440268891229</v>
       </c>
       <c r="J18">
-        <v>0.02252398472156655</v>
+        <v>0.04378513482992712</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>4.802637</v>
       </c>
       <c r="O18">
-        <v>0.424218366280756</v>
+        <v>0.4891578119151472</v>
       </c>
       <c r="P18">
-        <v>0.4519487492975115</v>
+        <v>0.5241645230468103</v>
       </c>
       <c r="Q18">
-        <v>0.03080678184966667</v>
+        <v>0.316871585744</v>
       </c>
       <c r="R18">
-        <v>0.277261036647</v>
+        <v>1.901229514464</v>
       </c>
       <c r="S18">
-        <v>0.00798498846253932</v>
+        <v>0.03136695250967412</v>
       </c>
       <c r="T18">
-        <v>0.01017968672410826</v>
+        <v>0.02295061431466903</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.01924366666666667</v>
+        <v>0.197936</v>
       </c>
       <c r="H19">
-        <v>0.057731</v>
+        <v>0.395872</v>
       </c>
       <c r="I19">
-        <v>0.01882282592464348</v>
+        <v>0.06412440268891229</v>
       </c>
       <c r="J19">
-        <v>0.02252398472156655</v>
+        <v>0.04378513482992712</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2829473333333334</v>
+        <v>0.6215413333333333</v>
       </c>
       <c r="N19">
-        <v>0.8488420000000001</v>
+        <v>1.864624</v>
       </c>
       <c r="O19">
-        <v>0.07497846838528283</v>
+        <v>0.1899155392931986</v>
       </c>
       <c r="P19">
-        <v>0.07987967448949365</v>
+        <v>0.2035068962367207</v>
       </c>
       <c r="Q19">
-        <v>0.00544494416688889</v>
+        <v>0.1230254053546667</v>
       </c>
       <c r="R19">
-        <v>0.04900449750200001</v>
+        <v>0.738152432128</v>
       </c>
       <c r="S19">
-        <v>0.001411306658512563</v>
+        <v>0.01217822051851901</v>
       </c>
       <c r="T19">
-        <v>0.001799208567765064</v>
+        <v>0.008910576890544804</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.01924366666666667</v>
+        <v>0.197936</v>
       </c>
       <c r="H20">
-        <v>0.057731</v>
+        <v>0.395872</v>
       </c>
       <c r="I20">
-        <v>0.01882282592464348</v>
+        <v>0.06412440268891229</v>
       </c>
       <c r="J20">
-        <v>0.02252398472156655</v>
+        <v>0.04378513482992712</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6946355</v>
+        <v>0.428507</v>
       </c>
       <c r="N20">
-        <v>1.389271</v>
+        <v>0.8570139999999999</v>
       </c>
       <c r="O20">
-        <v>0.1840720860043864</v>
+        <v>0.1309327853699898</v>
       </c>
       <c r="P20">
-        <v>0.1307363623120596</v>
+        <v>0.09353535038239182</v>
       </c>
       <c r="Q20">
-        <v>0.01336733401683333</v>
+        <v>0.084816961552</v>
       </c>
       <c r="R20">
-        <v>0.080204004101</v>
+        <v>0.339267846208</v>
       </c>
       <c r="S20">
-        <v>0.003464756832446569</v>
+        <v>0.008395986654246151</v>
       </c>
       <c r="T20">
-        <v>0.002944703827270019</v>
+        <v>0.004095457927857501</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.01924366666666667</v>
+        <v>0.197936</v>
       </c>
       <c r="H21">
-        <v>0.057731</v>
+        <v>0.395872</v>
       </c>
       <c r="I21">
-        <v>0.01882282592464348</v>
+        <v>0.06412440268891229</v>
       </c>
       <c r="J21">
-        <v>0.02252398472156655</v>
+        <v>0.04378513482992712</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.195252666666667</v>
+        <v>0.3945906666666667</v>
       </c>
       <c r="N21">
-        <v>3.585758</v>
+        <v>1.183772</v>
       </c>
       <c r="O21">
-        <v>0.3167310793295748</v>
+        <v>0.120569454099158</v>
       </c>
       <c r="P21">
-        <v>0.3374352139009353</v>
+        <v>0.1291980396969766</v>
       </c>
       <c r="Q21">
-        <v>0.02300104389977778</v>
+        <v>0.07810369819733334</v>
       </c>
       <c r="R21">
-        <v>0.207009395098</v>
+        <v>0.468622189184</v>
       </c>
       <c r="S21">
-        <v>0.005961773971145033</v>
+        <v>0.007731444226636732</v>
       </c>
       <c r="T21">
-        <v>0.007600385602423206</v>
+        <v>0.005656953587894398</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1251003333333333</v>
+        <v>2.439847666666667</v>
       </c>
       <c r="H22">
-        <v>0.375301</v>
+        <v>7.319543</v>
       </c>
       <c r="I22">
-        <v>0.1223645076708289</v>
+        <v>0.7904260684106801</v>
       </c>
       <c r="J22">
-        <v>0.1464252133167388</v>
+        <v>0.8095727334806435</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M22">
-        <v>1.600879</v>
+        <v>0.227207</v>
       </c>
       <c r="N22">
-        <v>4.802637</v>
+        <v>0.454414</v>
       </c>
       <c r="O22">
-        <v>0.424218366280756</v>
+        <v>0.06942440932250649</v>
       </c>
       <c r="P22">
-        <v>0.4519487492975115</v>
+        <v>0.04959519063710067</v>
       </c>
       <c r="Q22">
-        <v>0.2002704965263333</v>
+        <v>0.5543504688003333</v>
       </c>
       <c r="R22">
-        <v>1.802434468737</v>
+        <v>3.326102812802</v>
       </c>
       <c r="S22">
-        <v>0.05190927153486809</v>
+        <v>0.05487486291252257</v>
       </c>
       <c r="T22">
-        <v>0.06617669202412141</v>
+        <v>0.04015091405157121</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1251003333333333</v>
+        <v>2.439847666666667</v>
       </c>
       <c r="H23">
-        <v>0.375301</v>
+        <v>7.319543</v>
       </c>
       <c r="I23">
-        <v>0.1223645076708289</v>
+        <v>0.7904260684106801</v>
       </c>
       <c r="J23">
-        <v>0.1464252133167388</v>
+        <v>0.8095727334806435</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2829473333333334</v>
+        <v>1.600879</v>
       </c>
       <c r="N23">
-        <v>0.8488420000000001</v>
+        <v>4.802637</v>
       </c>
       <c r="O23">
-        <v>0.07497846838528283</v>
+        <v>0.4891578119151472</v>
       </c>
       <c r="P23">
-        <v>0.07987967448949365</v>
+        <v>0.5241645230468103</v>
       </c>
       <c r="Q23">
-        <v>0.03539680571577779</v>
+        <v>3.905900892765667</v>
       </c>
       <c r="R23">
-        <v>0.318571251442</v>
+        <v>35.153108034891</v>
       </c>
       <c r="S23">
-        <v>0.009174703369877945</v>
+        <v>0.3866430861044607</v>
       </c>
       <c r="T23">
-        <v>0.01169639837679576</v>
+        <v>0.424349305716584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1251003333333333</v>
+        <v>2.439847666666667</v>
       </c>
       <c r="H24">
-        <v>0.375301</v>
+        <v>7.319543</v>
       </c>
       <c r="I24">
-        <v>0.1223645076708289</v>
+        <v>0.7904260684106801</v>
       </c>
       <c r="J24">
-        <v>0.1464252133167388</v>
+        <v>0.8095727334806435</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6946355</v>
+        <v>0.6215413333333333</v>
       </c>
       <c r="N24">
-        <v>1.389271</v>
+        <v>1.864624</v>
       </c>
       <c r="O24">
-        <v>0.1840720860043864</v>
+        <v>0.1899155392931986</v>
       </c>
       <c r="P24">
-        <v>0.1307363623120596</v>
+        <v>0.2035068962367207</v>
       </c>
       <c r="Q24">
-        <v>0.08689913259516667</v>
+        <v>1.516466171870222</v>
       </c>
       <c r="R24">
-        <v>0.521394795571</v>
+        <v>13.648195546832</v>
       </c>
       <c r="S24">
-        <v>0.02252389017986922</v>
+        <v>0.150114193053617</v>
       </c>
       <c r="T24">
-        <v>0.01914309973979778</v>
+        <v>0.1647536342685237</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,418 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1251003333333333</v>
+        <v>2.439847666666667</v>
       </c>
       <c r="H25">
-        <v>0.375301</v>
+        <v>7.319543</v>
       </c>
       <c r="I25">
-        <v>0.1223645076708289</v>
+        <v>0.7904260684106801</v>
       </c>
       <c r="J25">
-        <v>0.1464252133167388</v>
+        <v>0.8095727334806435</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.195252666666667</v>
+        <v>0.428507</v>
       </c>
       <c r="N25">
-        <v>3.585758</v>
+        <v>0.8570139999999999</v>
       </c>
       <c r="O25">
-        <v>0.3167310793295748</v>
+        <v>0.1309327853699898</v>
       </c>
       <c r="P25">
-        <v>0.3374352139009353</v>
+        <v>0.09353535038239182</v>
       </c>
       <c r="Q25">
-        <v>0.1495265070175555</v>
+        <v>1.045491804100333</v>
       </c>
       <c r="R25">
-        <v>1.345738563158</v>
+        <v>6.272950824602</v>
       </c>
       <c r="S25">
-        <v>0.03875664258621368</v>
+        <v>0.1034926867660605</v>
       </c>
       <c r="T25">
-        <v>0.04940902317602382</v>
+        <v>0.0757236692861427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.439847666666667</v>
+      </c>
+      <c r="H26">
+        <v>7.319543</v>
+      </c>
+      <c r="I26">
+        <v>0.7904260684106801</v>
+      </c>
+      <c r="J26">
+        <v>0.8095727334806435</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3945906666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.183772</v>
+      </c>
+      <c r="O26">
+        <v>0.120569454099158</v>
+      </c>
+      <c r="P26">
+        <v>0.1291980396969766</v>
+      </c>
+      <c r="Q26">
+        <v>0.9627411173551111</v>
+      </c>
+      <c r="R26">
+        <v>8.664670056196</v>
+      </c>
+      <c r="S26">
+        <v>0.09530123957401938</v>
+      </c>
+      <c r="T26">
+        <v>0.1045952101578221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.08205433333333334</v>
+      </c>
+      <c r="H27">
+        <v>0.246163</v>
+      </c>
+      <c r="I27">
+        <v>0.02658275964471802</v>
+      </c>
+      <c r="J27">
+        <v>0.02722667969732477</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.227207</v>
+      </c>
+      <c r="N27">
+        <v>0.454414</v>
+      </c>
+      <c r="O27">
+        <v>0.06942440932250649</v>
+      </c>
+      <c r="P27">
+        <v>0.04959519063710067</v>
+      </c>
+      <c r="Q27">
+        <v>0.01864331891366667</v>
+      </c>
+      <c r="R27">
+        <v>0.111859913482</v>
+      </c>
+      <c r="S27">
+        <v>0.001845492386496711</v>
+      </c>
+      <c r="T27">
+        <v>0.0013503123700041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.08205433333333334</v>
+      </c>
+      <c r="H28">
+        <v>0.246163</v>
+      </c>
+      <c r="I28">
+        <v>0.02658275964471802</v>
+      </c>
+      <c r="J28">
+        <v>0.02722667969732477</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.600879</v>
+      </c>
+      <c r="N28">
+        <v>4.802637</v>
+      </c>
+      <c r="O28">
+        <v>0.4891578119151472</v>
+      </c>
+      <c r="P28">
+        <v>0.5241645230468103</v>
+      </c>
+      <c r="Q28">
+        <v>0.1313590590923333</v>
+      </c>
+      <c r="R28">
+        <v>1.182231531831</v>
+      </c>
+      <c r="S28">
+        <v>0.01300316454247654</v>
+      </c>
+      <c r="T28">
+        <v>0.01427125957769651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.08205433333333334</v>
+      </c>
+      <c r="H29">
+        <v>0.246163</v>
+      </c>
+      <c r="I29">
+        <v>0.02658275964471802</v>
+      </c>
+      <c r="J29">
+        <v>0.02722667969732477</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.6215413333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.864624</v>
+      </c>
+      <c r="O29">
+        <v>0.1899155392931986</v>
+      </c>
+      <c r="P29">
+        <v>0.2035068962367207</v>
+      </c>
+      <c r="Q29">
+        <v>0.05100015974577778</v>
+      </c>
+      <c r="R29">
+        <v>0.459001437712</v>
+      </c>
+      <c r="S29">
+        <v>0.005048479133828099</v>
+      </c>
+      <c r="T29">
+        <v>0.005540817080033902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.08205433333333334</v>
+      </c>
+      <c r="H30">
+        <v>0.246163</v>
+      </c>
+      <c r="I30">
+        <v>0.02658275964471802</v>
+      </c>
+      <c r="J30">
+        <v>0.02722667969732477</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.428507</v>
+      </c>
+      <c r="N30">
+        <v>0.8570139999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.1309327853699898</v>
+      </c>
+      <c r="P30">
+        <v>0.09353535038239182</v>
+      </c>
+      <c r="Q30">
+        <v>0.03516085621366666</v>
+      </c>
+      <c r="R30">
+        <v>0.210965137282</v>
+      </c>
+      <c r="S30">
+        <v>0.003480554763103892</v>
+      </c>
+      <c r="T30">
+        <v>0.002546657025238426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.08205433333333334</v>
+      </c>
+      <c r="H31">
+        <v>0.246163</v>
+      </c>
+      <c r="I31">
+        <v>0.02658275964471802</v>
+      </c>
+      <c r="J31">
+        <v>0.02722667969732477</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3945906666666667</v>
+      </c>
+      <c r="N31">
+        <v>1.183772</v>
+      </c>
+      <c r="O31">
+        <v>0.120569454099158</v>
+      </c>
+      <c r="P31">
+        <v>0.1291980396969766</v>
+      </c>
+      <c r="Q31">
+        <v>0.03237787409288889</v>
+      </c>
+      <c r="R31">
+        <v>0.291400866836</v>
+      </c>
+      <c r="S31">
+        <v>0.003205068818812778</v>
+      </c>
+      <c r="T31">
+        <v>0.003517633644351833</v>
       </c>
     </row>
   </sheetData>
